--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -85,10 +85,10 @@
     <t>positive</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>well</t>
@@ -980,25 +980,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.658008658008658</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L15">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1006,13 +1006,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6382978723404256</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1162,25 +1162,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5290519877675841</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L22">
         <v>173</v>
       </c>
       <c r="M22">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="10:17">
